--- a/output/1Y_P47_KFSDIV.xlsx
+++ b/output/1Y_P47_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>16.1958</v>
       </c>
       <c r="C2" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D2" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>16.4264</v>
       </c>
       <c r="C3" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D3" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E3" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="H3" s="1">
-        <v>10142.3826</v>
+        <v>10101.9213</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10142.3826</v>
+        <v>10101.9213</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="M3" s="1">
         <v>0.75</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0142</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>17.107</v>
       </c>
       <c r="C4" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D4" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E4" s="1">
-        <v>1226.2201</v>
+        <v>1223.7705</v>
       </c>
       <c r="F4" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="H4" s="1">
-        <v>20976.948</v>
+        <v>20893.1897</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20976.948</v>
+        <v>20893.1897</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.3103</v>
+        <v>16.3429</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0414</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>16.8894</v>
       </c>
       <c r="C5" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D5" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E5" s="1">
-        <v>1810.7762</v>
+        <v>1807.1569</v>
       </c>
       <c r="F5" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="H5" s="1">
-        <v>30582.7421</v>
+        <v>30460.7132</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30582.7421</v>
+        <v>30460.7132</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.5675</v>
+        <v>16.6007</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1103.5981</v>
+        <v>1101.3935</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8896.401900000001</v>
+        <v>-8898.6065</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0127</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>16.4004</v>
       </c>
       <c r="C6" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D6" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E6" s="1">
-        <v>2402.8635</v>
+        <v>2398.0617</v>
       </c>
       <c r="F6" s="1">
-        <v>618.1526</v>
+        <v>616.8982999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>39407.9229</v>
+        <v>39250.514</v>
       </c>
       <c r="I6" s="1">
-        <v>1103.5981</v>
+        <v>1101.3935</v>
       </c>
       <c r="J6" s="1">
-        <v>40511.521</v>
+        <v>40351.9075</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>16.6468</v>
+        <v>16.6801</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10137.9498</v>
+        <v>-10137.6742</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0018</v>
+        <v>-0.0027</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>15.3877</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E7" s="1">
-        <v>3021.0161</v>
+        <v>3014.9599</v>
       </c>
       <c r="F7" s="1">
-        <v>658.8346</v>
+        <v>657.5007000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>46486.4896</v>
+        <v>46300.4379</v>
       </c>
       <c r="I7" s="1">
-        <v>965.6484</v>
+        <v>963.7193</v>
       </c>
       <c r="J7" s="1">
-        <v>47452.138</v>
+        <v>47264.1572</v>
       </c>
       <c r="K7" s="1">
-        <v>50137.9498</v>
+        <v>50137.6742</v>
       </c>
       <c r="L7" s="1">
-        <v>16.5964</v>
+        <v>16.6296</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10137.9498</v>
+        <v>-10137.6742</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0606</v>
+        <v>-0.0613</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>14.6367</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E8" s="1">
-        <v>3679.8507</v>
+        <v>3672.4606</v>
       </c>
       <c r="F8" s="1">
-        <v>692.639</v>
+        <v>691.2365</v>
       </c>
       <c r="H8" s="1">
-        <v>53860.8715</v>
+        <v>53645.1009</v>
       </c>
       <c r="I8" s="1">
-        <v>827.6986000000001</v>
+        <v>826.0451</v>
       </c>
       <c r="J8" s="1">
-        <v>54688.5701</v>
+        <v>54471.146</v>
       </c>
       <c r="K8" s="1">
-        <v>60275.8995</v>
+        <v>60275.3484</v>
       </c>
       <c r="L8" s="1">
-        <v>16.38</v>
+        <v>16.4128</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10137.9498</v>
+        <v>-10137.6742</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0481</v>
+        <v>-0.0488</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>13.0061</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D9" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E9" s="1">
-        <v>4372.4898</v>
+        <v>4363.6971</v>
       </c>
       <c r="F9" s="1">
-        <v>779.4765</v>
+        <v>777.8943</v>
       </c>
       <c r="H9" s="1">
-        <v>56869.0394</v>
+        <v>56641.2244</v>
       </c>
       <c r="I9" s="1">
-        <v>689.7488</v>
+        <v>688.3709</v>
       </c>
       <c r="J9" s="1">
-        <v>57558.7882</v>
+        <v>57329.5953</v>
       </c>
       <c r="K9" s="1">
-        <v>70413.8493</v>
+        <v>70413.0226</v>
       </c>
       <c r="L9" s="1">
-        <v>16.1038</v>
+        <v>16.1361</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1655.9328</v>
+        <v>1652.6073</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8482.016900000001</v>
+        <v>-8485.0669</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.1102</v>
+        <v>-0.1108</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.835</v>
       </c>
       <c r="C10" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D10" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E10" s="1">
-        <v>5151.9663</v>
+        <v>5141.5914</v>
       </c>
       <c r="F10" s="1">
-        <v>762.6984</v>
+        <v>761.0946</v>
       </c>
       <c r="H10" s="1">
-        <v>71277.454</v>
+        <v>70991.49460000001</v>
       </c>
       <c r="I10" s="1">
-        <v>2207.7319</v>
+        <v>2203.304</v>
       </c>
       <c r="J10" s="1">
-        <v>73485.1859</v>
+        <v>73194.7987</v>
       </c>
       <c r="K10" s="1">
-        <v>80551.7991</v>
+        <v>80550.6967</v>
       </c>
       <c r="L10" s="1">
-        <v>15.6352</v>
+        <v>15.6665</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10551.933</v>
+        <v>-10550.826</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0877</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>14.4216</v>
       </c>
       <c r="C11" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D11" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E11" s="1">
-        <v>5914.6648</v>
+        <v>5902.686</v>
       </c>
       <c r="F11" s="1">
-        <v>731.6756</v>
+        <v>730.1357</v>
       </c>
       <c r="H11" s="1">
-        <v>85298.92939999999</v>
+        <v>84956.1786</v>
       </c>
       <c r="I11" s="1">
-        <v>1655.7989</v>
+        <v>1652.478</v>
       </c>
       <c r="J11" s="1">
-        <v>86954.7283</v>
+        <v>86608.6566</v>
       </c>
       <c r="K11" s="1">
-        <v>91103.732</v>
+        <v>91101.5227</v>
       </c>
       <c r="L11" s="1">
-        <v>15.403</v>
+        <v>15.4339</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10551.933</v>
+        <v>-10550.826</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0416</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>13.2404</v>
       </c>
       <c r="C12" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D12" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E12" s="1">
-        <v>6646.3404</v>
+        <v>6632.8217</v>
       </c>
       <c r="F12" s="1">
-        <v>796.9497</v>
+        <v>795.2744</v>
       </c>
       <c r="H12" s="1">
-        <v>88000.20510000001</v>
+        <v>87645.4423</v>
       </c>
       <c r="I12" s="1">
-        <v>1103.866</v>
+        <v>1101.652</v>
       </c>
       <c r="J12" s="1">
-        <v>89104.071</v>
+        <v>88747.0943</v>
       </c>
       <c r="K12" s="1">
-        <v>101655.665</v>
+        <v>101652.3487</v>
       </c>
       <c r="L12" s="1">
-        <v>15.295</v>
+        <v>15.3257</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2129.2793</v>
+        <v>2124.9669</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8422.653700000001</v>
+        <v>-8425.8591</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.081</v>
+        <v>-0.0814</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>12.382</v>
       </c>
       <c r="C13" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D13" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E13" s="1">
-        <v>7443.2901</v>
+        <v>7428.0961</v>
       </c>
       <c r="F13" s="1">
-        <v>1024.1651</v>
+        <v>1021.6811</v>
       </c>
       <c r="H13" s="1">
-        <v>92162.81789999999</v>
+        <v>91790.46890000001</v>
       </c>
       <c r="I13" s="1">
-        <v>2681.2123</v>
+        <v>2675.793</v>
       </c>
       <c r="J13" s="1">
-        <v>94844.03019999999</v>
+        <v>94466.26179999999</v>
       </c>
       <c r="K13" s="1">
-        <v>112207.598</v>
+        <v>112203.1747</v>
       </c>
       <c r="L13" s="1">
-        <v>15.075</v>
+        <v>15.1052</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12681.2123</v>
+        <v>-12675.793</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.043</v>
+        <v>-0.0434</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.9583</v>
       </c>
       <c r="C14" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D14" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E14" s="1">
-        <v>8467.4552</v>
+        <v>8449.7772</v>
       </c>
       <c r="F14" s="1">
-        <v>-8467.4552</v>
+        <v>-8449.7772</v>
       </c>
       <c r="H14" s="1">
-        <v>101256.3694</v>
+        <v>100843.0207</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>101256.3694</v>
+        <v>100843.0207</v>
       </c>
       <c r="K14" s="1">
-        <v>124888.8103</v>
+        <v>124878.9677</v>
       </c>
       <c r="L14" s="1">
-        <v>14.7493</v>
+        <v>14.779</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101256.3694</v>
+        <v>100843.0207</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>16.1958</v>
       </c>
       <c r="C2" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D2" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>16.4264</v>
       </c>
       <c r="C3" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D3" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E3" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>600.1082</v>
+        <v>603.777</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10142.3826</v>
+        <v>10101.9213</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10142.3826</v>
+        <v>10101.9213</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="M3" s="1">
         <v>0.75</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9857.617399999999</v>
+        <v>-9937.746800000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0142</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>17.107</v>
       </c>
       <c r="C4" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D4" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E4" s="1">
-        <v>1217.5522</v>
+        <v>1219.9883</v>
       </c>
       <c r="F4" s="1">
-        <v>536.1159</v>
+        <v>537.1926999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20828.666</v>
+        <v>20828.616</v>
       </c>
       <c r="I4" s="1">
-        <v>142.3826</v>
+        <v>62.2532</v>
       </c>
       <c r="J4" s="1">
-        <v>20971.0486</v>
+        <v>20890.8692</v>
       </c>
       <c r="K4" s="1">
-        <v>19857.6174</v>
+        <v>19937.7468</v>
       </c>
       <c r="L4" s="1">
-        <v>16.3095</v>
+        <v>16.3426</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9171.334000000001</v>
+        <v>-9208.181699999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0411</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>16.8894</v>
       </c>
       <c r="C5" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D5" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E5" s="1">
-        <v>1753.6681</v>
+        <v>1757.181</v>
       </c>
       <c r="F5" s="1">
-        <v>614.6953</v>
+        <v>615.9175</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29618.2265</v>
+        <v>29618.3403</v>
       </c>
       <c r="I5" s="1">
-        <v>971.0486</v>
+        <v>854.0715</v>
       </c>
       <c r="J5" s="1">
-        <v>30589.2751</v>
+        <v>30472.4118</v>
       </c>
       <c r="K5" s="1">
-        <v>29028.9514</v>
+        <v>29145.9285</v>
       </c>
       <c r="L5" s="1">
-        <v>16.5533</v>
+        <v>16.5868</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1095.797</v>
+        <v>1097.9895</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9286.038</v>
+        <v>-9325.3063</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0123</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>16.4004</v>
       </c>
       <c r="C6" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D6" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E6" s="1">
-        <v>2368.3634</v>
+        <v>2373.0986</v>
       </c>
       <c r="F6" s="1">
-        <v>680.3427</v>
+        <v>681.7171</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38842.1071</v>
+        <v>38841.9279</v>
       </c>
       <c r="I6" s="1">
-        <v>1685.0106</v>
+        <v>1528.7653</v>
       </c>
       <c r="J6" s="1">
-        <v>40527.1178</v>
+        <v>40370.6932</v>
       </c>
       <c r="K6" s="1">
-        <v>39410.7864</v>
+        <v>39569.2242</v>
       </c>
       <c r="L6" s="1">
-        <v>16.6405</v>
+        <v>16.6741</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11157.8929</v>
+        <v>-11202.8609</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0015</v>
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>15.3877</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E7" s="1">
-        <v>3048.7061</v>
+        <v>3054.8156</v>
       </c>
       <c r="F7" s="1">
-        <v>684.1255</v>
+        <v>669.7087</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>46912.5753</v>
+        <v>46912.4979</v>
       </c>
       <c r="I7" s="1">
-        <v>527.1178</v>
+        <v>325.9044</v>
       </c>
       <c r="J7" s="1">
-        <v>47439.6931</v>
+        <v>47238.4022</v>
       </c>
       <c r="K7" s="1">
-        <v>50568.6792</v>
+        <v>50772.0851</v>
       </c>
       <c r="L7" s="1">
-        <v>16.5869</v>
+        <v>16.6203</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10527.1178</v>
+        <v>-10325.9044</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0611</v>
+        <v>-0.0622</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>14.6367</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E8" s="1">
-        <v>3732.8316</v>
+        <v>3724.5244</v>
       </c>
       <c r="F8" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>54636.3365</v>
+        <v>54405.6171</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>54636.3365</v>
+        <v>54405.6171</v>
       </c>
       <c r="K8" s="1">
-        <v>61095.797</v>
+        <v>61097.9895</v>
       </c>
       <c r="L8" s="1">
-        <v>16.3671</v>
+        <v>16.4042</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0488</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>13.0061</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D9" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E9" s="1">
-        <v>4416.0457</v>
+        <v>4406.3735</v>
       </c>
       <c r="F9" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>57435.5324</v>
+        <v>57195.1691</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>57435.5324</v>
+        <v>57195.1691</v>
       </c>
       <c r="K9" s="1">
-        <v>71095.79700000001</v>
+        <v>71097.9895</v>
       </c>
       <c r="L9" s="1">
-        <v>16.0994</v>
+        <v>16.1353</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1679.7742</v>
+        <v>1676.036</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8320.2258</v>
+        <v>-8323.964</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.1114</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.835</v>
       </c>
       <c r="C10" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D10" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E10" s="1">
-        <v>5184.9157</v>
+        <v>5173.7037</v>
       </c>
       <c r="F10" s="1">
-        <v>844.2193</v>
+        <v>842.2628</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>71733.30899999999</v>
+        <v>71434.8789</v>
       </c>
       <c r="I10" s="1">
-        <v>1679.7742</v>
+        <v>1676.036</v>
       </c>
       <c r="J10" s="1">
-        <v>73413.08319999999</v>
+        <v>73110.9149</v>
       </c>
       <c r="K10" s="1">
-        <v>81095.79700000001</v>
+        <v>81097.9895</v>
       </c>
       <c r="L10" s="1">
-        <v>15.6407</v>
+        <v>15.675</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11679.7742</v>
+        <v>-11676.036</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0886</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>14.4216</v>
       </c>
       <c r="C11" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D11" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E11" s="1">
-        <v>6029.135</v>
+        <v>6015.9664</v>
       </c>
       <c r="F11" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>86949.7738</v>
+        <v>86586.60189999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>86949.7738</v>
+        <v>86586.60189999999</v>
       </c>
       <c r="K11" s="1">
-        <v>92775.57120000001</v>
+        <v>92774.0254</v>
       </c>
       <c r="L11" s="1">
-        <v>15.3879</v>
+        <v>15.4213</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0424</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>13.2404</v>
       </c>
       <c r="C12" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D12" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E12" s="1">
-        <v>6722.5394</v>
+        <v>6707.984</v>
       </c>
       <c r="F12" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>89009.1103</v>
+        <v>88638.63009999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89009.1103</v>
+        <v>88638.63009999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102775.5712</v>
+        <v>102774.0254</v>
       </c>
       <c r="L12" s="1">
-        <v>15.2882</v>
+        <v>15.3211</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2170.4886</v>
+        <v>2165.7479</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7829.5114</v>
+        <v>-7834.2521</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>12.382</v>
       </c>
       <c r="C13" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D13" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E13" s="1">
-        <v>7477.8036</v>
+        <v>7461.7396</v>
       </c>
       <c r="F13" s="1">
-        <v>982.9178000000001</v>
+        <v>980.571</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>92590.16379999999</v>
+        <v>92206.2087</v>
       </c>
       <c r="I13" s="1">
-        <v>2170.4886</v>
+        <v>2165.7479</v>
       </c>
       <c r="J13" s="1">
-        <v>94760.65240000001</v>
+        <v>94371.9566</v>
       </c>
       <c r="K13" s="1">
-        <v>112775.5712</v>
+        <v>112774.0254</v>
       </c>
       <c r="L13" s="1">
-        <v>15.0814</v>
+        <v>15.1136</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12170.4886</v>
+        <v>-12165.7479</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0429</v>
+        <v>-0.0433</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>11.9583</v>
       </c>
       <c r="C14" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D14" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E14" s="1">
-        <v>8460.7214</v>
+        <v>8442.310600000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8460.7214</v>
+        <v>-8442.310600000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>101175.8447</v>
+        <v>100753.9114</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>101175.8447</v>
+        <v>100753.9114</v>
       </c>
       <c r="K14" s="1">
-        <v>124946.0599</v>
+        <v>124939.7733</v>
       </c>
       <c r="L14" s="1">
-        <v>14.7678</v>
+        <v>14.7992</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101175.8447</v>
+        <v>100753.9114</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>16.1958</v>
       </c>
       <c r="C2" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D2" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>16.4264</v>
       </c>
       <c r="C3" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D3" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E3" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>603.1521</v>
+        <v>606.827</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10142.3826</v>
+        <v>10101.9213</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10142.3826</v>
+        <v>10101.9213</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="M3" s="1">
         <v>0.75</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9907.617399999999</v>
+        <v>-9987.947200000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0142</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>17.107</v>
       </c>
       <c r="C4" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D4" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E4" s="1">
-        <v>1220.5961</v>
+        <v>1223.0383</v>
       </c>
       <c r="F4" s="1">
-        <v>541.8549</v>
+        <v>542.9433</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20880.7377</v>
+        <v>20880.6876</v>
       </c>
       <c r="I4" s="1">
-        <v>92.3826</v>
+        <v>12.0528</v>
       </c>
       <c r="J4" s="1">
-        <v>20973.1203</v>
+        <v>20892.7404</v>
       </c>
       <c r="K4" s="1">
-        <v>19907.6174</v>
+        <v>19987.9472</v>
       </c>
       <c r="L4" s="1">
-        <v>16.3097</v>
+        <v>16.3429</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9269.5123</v>
+        <v>-9306.754000000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0412</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>16.8894</v>
       </c>
       <c r="C5" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D5" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E5" s="1">
-        <v>1762.451</v>
+        <v>1765.9816</v>
       </c>
       <c r="F5" s="1">
-        <v>623.7344000000001</v>
+        <v>624.9746</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29766.5644</v>
+        <v>29766.6788</v>
       </c>
       <c r="I5" s="1">
-        <v>822.8703</v>
+        <v>705.2988</v>
       </c>
       <c r="J5" s="1">
-        <v>30589.4347</v>
+        <v>30471.9776</v>
       </c>
       <c r="K5" s="1">
-        <v>29177.1297</v>
+        <v>29294.7012</v>
       </c>
       <c r="L5" s="1">
-        <v>16.5549</v>
+        <v>16.5883</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1098.5365</v>
+        <v>1100.7344</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9435.9627</v>
+        <v>-9475.836300000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0124</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>16.4004</v>
       </c>
       <c r="C6" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D6" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E6" s="1">
-        <v>2386.1854</v>
+        <v>2390.9562</v>
       </c>
       <c r="F6" s="1">
-        <v>693.1606</v>
+        <v>683.3357999999999</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39134.3952</v>
+        <v>39134.2146</v>
       </c>
       <c r="I6" s="1">
-        <v>1386.9076</v>
+        <v>1229.4625</v>
       </c>
       <c r="J6" s="1">
-        <v>40521.3028</v>
+        <v>40363.6771</v>
       </c>
       <c r="K6" s="1">
-        <v>39711.6289</v>
+        <v>39871.2719</v>
       </c>
       <c r="L6" s="1">
-        <v>16.6423</v>
+        <v>16.6759</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11368.1111</v>
+        <v>-11229.4625</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0017</v>
+        <v>-0.0027</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>15.3877</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E7" s="1">
-        <v>3079.346</v>
+        <v>3074.292</v>
       </c>
       <c r="F7" s="1">
-        <v>651.0912</v>
+        <v>648.5715</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>47384.0526</v>
+        <v>47211.595</v>
       </c>
       <c r="I7" s="1">
-        <v>18.7965</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47402.8491</v>
+        <v>47211.595</v>
       </c>
       <c r="K7" s="1">
-        <v>51079.74</v>
+        <v>51100.7344</v>
       </c>
       <c r="L7" s="1">
-        <v>16.5879</v>
+        <v>16.622</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10018.7965</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0617</v>
+        <v>-0.0626</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>14.6367</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E8" s="1">
-        <v>3730.4372</v>
+        <v>3722.8635</v>
       </c>
       <c r="F8" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>54601.2907</v>
+        <v>54381.3568</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>54601.2907</v>
+        <v>54381.3568</v>
       </c>
       <c r="K8" s="1">
-        <v>61098.5365</v>
+        <v>61100.7344</v>
       </c>
       <c r="L8" s="1">
-        <v>16.3784</v>
+        <v>16.4123</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0488</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>13.0061</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D9" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E9" s="1">
-        <v>4413.6514</v>
+        <v>4404.7127</v>
       </c>
       <c r="F9" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>57404.3908</v>
+        <v>57173.6114</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>57404.3908</v>
+        <v>57173.6114</v>
       </c>
       <c r="K9" s="1">
-        <v>71098.5365</v>
+        <v>71100.7344</v>
       </c>
       <c r="L9" s="1">
-        <v>16.1088</v>
+        <v>16.142</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1678.6968</v>
+        <v>1675.2886</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8321.3032</v>
+        <v>-8324.7114</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.1114</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.835</v>
       </c>
       <c r="C10" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D10" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E10" s="1">
-        <v>5182.5213</v>
+        <v>5172.0429</v>
       </c>
       <c r="F10" s="1">
-        <v>844.1414</v>
+        <v>842.2088</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>71700.1828</v>
+        <v>71411.9474</v>
       </c>
       <c r="I10" s="1">
-        <v>1678.6968</v>
+        <v>1675.2886</v>
       </c>
       <c r="J10" s="1">
-        <v>73378.8795</v>
+        <v>73087.236</v>
       </c>
       <c r="K10" s="1">
-        <v>81098.5365</v>
+        <v>81100.7344</v>
       </c>
       <c r="L10" s="1">
-        <v>15.6485</v>
+        <v>15.6806</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11678.6968</v>
+        <v>-11675.2886</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0886</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>14.4216</v>
       </c>
       <c r="C11" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D11" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E11" s="1">
-        <v>6026.6628</v>
+        <v>6014.2517</v>
       </c>
       <c r="F11" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>86914.11990000001</v>
+        <v>86561.92200000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>86914.11990000001</v>
+        <v>86561.92200000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92777.23330000001</v>
+        <v>92776.023</v>
       </c>
       <c r="L11" s="1">
-        <v>15.3945</v>
+        <v>15.426</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0424</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>13.2404</v>
       </c>
       <c r="C12" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D12" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E12" s="1">
-        <v>6720.0671</v>
+        <v>6706.2693</v>
       </c>
       <c r="F12" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>88976.3766</v>
+        <v>88615.97169999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>88976.3766</v>
+        <v>88615.97169999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102777.2333</v>
+        <v>102776.023</v>
       </c>
       <c r="L12" s="1">
-        <v>15.2941</v>
+        <v>15.3254</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2169.5986</v>
+        <v>2165.1306</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7830.4014</v>
+        <v>-7834.8694</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>12.382</v>
       </c>
       <c r="C13" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D13" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E13" s="1">
-        <v>7475.3313</v>
+        <v>7460.0249</v>
       </c>
       <c r="F13" s="1">
-        <v>982.846</v>
+        <v>980.5212</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>92559.55220000001</v>
+        <v>92185.0194</v>
       </c>
       <c r="I13" s="1">
-        <v>2169.5986</v>
+        <v>2165.1306</v>
       </c>
       <c r="J13" s="1">
-        <v>94729.1508</v>
+        <v>94350.14999999999</v>
       </c>
       <c r="K13" s="1">
-        <v>112777.2333</v>
+        <v>112776.023</v>
       </c>
       <c r="L13" s="1">
-        <v>15.0866</v>
+        <v>15.1174</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12169.5986</v>
+        <v>-12165.1306</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0429</v>
+        <v>-0.0433</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>11.9583</v>
       </c>
       <c r="C14" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D14" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E14" s="1">
-        <v>8458.177299999999</v>
+        <v>8440.5461</v>
       </c>
       <c r="F14" s="1">
-        <v>-8458.177299999999</v>
+        <v>-8440.5461</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>101145.4211</v>
+        <v>100732.8532</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>101145.4211</v>
+        <v>100732.8532</v>
       </c>
       <c r="K14" s="1">
-        <v>124946.8319</v>
+        <v>124941.1536</v>
       </c>
       <c r="L14" s="1">
-        <v>14.7723</v>
+        <v>14.8025</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101145.4211</v>
+        <v>100732.8532</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>16.1958</v>
       </c>
       <c r="C2" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D2" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>16.4264</v>
       </c>
       <c r="C3" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D3" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E3" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>606.196</v>
+        <v>609.8769</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10142.3826</v>
+        <v>10101.9213</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10142.3826</v>
+        <v>10101.9213</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="M3" s="1">
         <v>0.75</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9957.617399999999</v>
+        <v>-10038.1476</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0142</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>17.107</v>
       </c>
       <c r="C4" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D4" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E4" s="1">
-        <v>1223.64</v>
+        <v>1226.0882</v>
       </c>
       <c r="F4" s="1">
-        <v>547.6232</v>
+        <v>548.7232</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20932.8094</v>
+        <v>20932.7591</v>
       </c>
       <c r="I4" s="1">
-        <v>42.3826</v>
+        <v>-38.1476</v>
       </c>
       <c r="J4" s="1">
-        <v>20975.192</v>
+        <v>20894.6116</v>
       </c>
       <c r="K4" s="1">
-        <v>19957.6174</v>
+        <v>20038.1476</v>
       </c>
       <c r="L4" s="1">
-        <v>16.31</v>
+        <v>16.3432</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9368.1906</v>
+        <v>-9405.8284</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0413</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>16.8894</v>
       </c>
       <c r="C5" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D5" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E5" s="1">
-        <v>1771.2632</v>
+        <v>1774.8114</v>
       </c>
       <c r="F5" s="1">
-        <v>632.0054</v>
+        <v>623.7605</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29915.396</v>
+        <v>29915.511</v>
       </c>
       <c r="I5" s="1">
-        <v>674.192</v>
+        <v>556.024</v>
       </c>
       <c r="J5" s="1">
-        <v>30589.588</v>
+        <v>30471.535</v>
       </c>
       <c r="K5" s="1">
-        <v>29325.808</v>
+        <v>29443.976</v>
       </c>
       <c r="L5" s="1">
-        <v>16.5564</v>
+        <v>16.5899</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1101.276</v>
+        <v>1103.4794</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9572.915999999999</v>
+        <v>-9452.544599999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0124</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>16.4004</v>
       </c>
       <c r="C6" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D6" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E6" s="1">
-        <v>2403.2686</v>
+        <v>2398.5719</v>
       </c>
       <c r="F6" s="1">
-        <v>676.8905999999999</v>
+        <v>675.6695</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39414.5667</v>
+        <v>39258.8657</v>
       </c>
       <c r="I6" s="1">
-        <v>1101.276</v>
+        <v>1103.4794</v>
       </c>
       <c r="J6" s="1">
-        <v>40515.8427</v>
+        <v>40362.3451</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>16.644</v>
+        <v>16.6766</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11101.276</v>
+        <v>-11103.4794</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0018</v>
+        <v>-0.0027</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>15.3877</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E7" s="1">
-        <v>3080.1592</v>
+        <v>3074.2414</v>
       </c>
       <c r="F7" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>47396.5655</v>
+        <v>47210.8178</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47396.5655</v>
+        <v>47210.8178</v>
       </c>
       <c r="K7" s="1">
-        <v>51101.276</v>
+        <v>51103.4794</v>
       </c>
       <c r="L7" s="1">
-        <v>16.5905</v>
+        <v>16.6231</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0617</v>
+        <v>-0.0626</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>14.6367</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E8" s="1">
-        <v>3730.0289</v>
+        <v>3722.8129</v>
       </c>
       <c r="F8" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>54595.3138</v>
+        <v>54380.6175</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>54595.3138</v>
+        <v>54380.6175</v>
       </c>
       <c r="K8" s="1">
-        <v>61101.276</v>
+        <v>61103.4794</v>
       </c>
       <c r="L8" s="1">
-        <v>16.3809</v>
+        <v>16.4133</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0488</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>13.0061</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D9" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E9" s="1">
-        <v>4413.243</v>
+        <v>4404.6621</v>
       </c>
       <c r="F9" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>57399.0798</v>
+        <v>57172.9545</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>57399.0798</v>
+        <v>57172.9545</v>
       </c>
       <c r="K9" s="1">
-        <v>71101.276</v>
+        <v>71103.4794</v>
       </c>
       <c r="L9" s="1">
-        <v>16.1109</v>
+        <v>16.1428</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1678.513</v>
+        <v>1675.2658</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8321.486999999999</v>
+        <v>-8324.734200000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.1114</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.835</v>
       </c>
       <c r="C10" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D10" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E10" s="1">
-        <v>5182.113</v>
+        <v>5171.9923</v>
       </c>
       <c r="F10" s="1">
-        <v>844.1282</v>
+        <v>842.2071999999999</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>71694.5333</v>
+        <v>71411.24860000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1678.513</v>
+        <v>1675.2658</v>
       </c>
       <c r="J10" s="1">
-        <v>73373.0463</v>
+        <v>73086.5144</v>
       </c>
       <c r="K10" s="1">
-        <v>81101.276</v>
+        <v>81103.4794</v>
       </c>
       <c r="L10" s="1">
-        <v>15.6502</v>
+        <v>15.6813</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11678.513</v>
+        <v>-11675.2658</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0886</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>14.4216</v>
       </c>
       <c r="C11" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D11" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E11" s="1">
-        <v>6026.2411</v>
+        <v>6014.1995</v>
       </c>
       <c r="F11" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>86908.0393</v>
+        <v>86561.16989999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>86908.0393</v>
+        <v>86561.16989999999</v>
       </c>
       <c r="K11" s="1">
-        <v>92779.789</v>
+        <v>92778.7452</v>
       </c>
       <c r="L11" s="1">
-        <v>15.396</v>
+        <v>15.4266</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0424</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>13.2404</v>
       </c>
       <c r="C12" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D12" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E12" s="1">
-        <v>6719.6455</v>
+        <v>6706.217</v>
       </c>
       <c r="F12" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>88970.7941</v>
+        <v>88615.2813</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>88970.7941</v>
+        <v>88615.2813</v>
       </c>
       <c r="K12" s="1">
-        <v>102779.789</v>
+        <v>102778.7452</v>
       </c>
       <c r="L12" s="1">
-        <v>15.2954</v>
+        <v>15.3259</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2169.4468</v>
+        <v>2165.1118</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7830.5532</v>
+        <v>-7834.8882</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>12.382</v>
       </c>
       <c r="C13" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D13" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E13" s="1">
-        <v>7474.9097</v>
+        <v>7459.9726</v>
       </c>
       <c r="F13" s="1">
-        <v>982.8337</v>
+        <v>980.5196999999999</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>92554.3316</v>
+        <v>92184.3737</v>
       </c>
       <c r="I13" s="1">
-        <v>2169.4468</v>
+        <v>2165.1118</v>
       </c>
       <c r="J13" s="1">
-        <v>94723.7784</v>
+        <v>94349.4855</v>
       </c>
       <c r="K13" s="1">
-        <v>112779.789</v>
+        <v>112778.7452</v>
       </c>
       <c r="L13" s="1">
-        <v>15.0878</v>
+        <v>15.1178</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12169.4468</v>
+        <v>-12165.1118</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0429</v>
+        <v>-0.0433</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>11.9583</v>
       </c>
       <c r="C14" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D14" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E14" s="1">
-        <v>8457.743399999999</v>
+        <v>8440.4923</v>
       </c>
       <c r="F14" s="1">
-        <v>-8457.743399999999</v>
+        <v>-8440.4923</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>101140.2325</v>
+        <v>100732.2115</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>101140.2325</v>
+        <v>100732.2115</v>
       </c>
       <c r="K14" s="1">
-        <v>124949.2358</v>
+        <v>124943.857</v>
       </c>
       <c r="L14" s="1">
-        <v>14.7734</v>
+        <v>14.8029</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101140.2325</v>
+        <v>100732.2115</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>16.1958</v>
       </c>
       <c r="C2" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D2" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>16.4264</v>
       </c>
       <c r="C3" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D3" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E3" s="1">
-        <v>617.444</v>
+        <v>616.2113000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10142.3826</v>
+        <v>10101.9213</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10142.3826</v>
+        <v>10101.9213</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="M3" s="1">
         <v>0.75</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0142</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>17.107</v>
       </c>
       <c r="C4" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D4" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E4" s="1">
-        <v>1226.2201</v>
+        <v>1223.7705</v>
       </c>
       <c r="F4" s="1">
-        <v>553.8845</v>
+        <v>559.9</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20976.948</v>
+        <v>20893.1897</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20976.948</v>
+        <v>20893.1897</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.3103</v>
+        <v>16.3429</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9475.302</v>
+        <v>-9597.413500000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0414</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>16.8894</v>
       </c>
       <c r="C5" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D5" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E5" s="1">
-        <v>1780.1046</v>
+        <v>1783.6705</v>
       </c>
       <c r="F5" s="1">
-        <v>623.1541</v>
+        <v>614.6938</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30064.7212</v>
+        <v>30064.8368</v>
       </c>
       <c r="I5" s="1">
-        <v>524.698</v>
+        <v>402.5865</v>
       </c>
       <c r="J5" s="1">
-        <v>30589.4192</v>
+        <v>30467.4233</v>
       </c>
       <c r="K5" s="1">
-        <v>29475.302</v>
+        <v>29597.4135</v>
       </c>
       <c r="L5" s="1">
-        <v>16.5582</v>
+        <v>16.5935</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1103.5981</v>
+        <v>1101.3935</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9421.099899999999</v>
+        <v>-9301.192999999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0125</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>16.4004</v>
       </c>
       <c r="C6" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D6" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E6" s="1">
-        <v>2403.2587</v>
+        <v>2398.3643</v>
       </c>
       <c r="F6" s="1">
-        <v>677.0322</v>
+        <v>675.5426</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39414.4038</v>
+        <v>39255.4682</v>
       </c>
       <c r="I6" s="1">
-        <v>1103.5981</v>
+        <v>1101.3935</v>
       </c>
       <c r="J6" s="1">
-        <v>40518.0019</v>
+        <v>40356.8617</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>16.6441</v>
+        <v>16.678</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11103.5981</v>
+        <v>-11101.3935</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0018</v>
+        <v>-0.0027</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>15.3877</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E7" s="1">
-        <v>3080.2908</v>
+        <v>3073.9069</v>
       </c>
       <c r="F7" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>47398.5914</v>
+        <v>47205.6808</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47398.5914</v>
+        <v>47205.6808</v>
       </c>
       <c r="K7" s="1">
-        <v>51103.5981</v>
+        <v>51101.3935</v>
       </c>
       <c r="L7" s="1">
-        <v>16.5905</v>
+        <v>16.6242</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0617</v>
+        <v>-0.0626</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>14.6367</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E8" s="1">
-        <v>3730.1605</v>
+        <v>3722.4784</v>
       </c>
       <c r="F8" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>54597.2408</v>
+        <v>54375.7312</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>54597.2408</v>
+        <v>54375.7312</v>
       </c>
       <c r="K8" s="1">
-        <v>61103.5981</v>
+        <v>61101.3935</v>
       </c>
       <c r="L8" s="1">
-        <v>16.381</v>
+        <v>16.4142</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0488</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>13.0061</v>
       </c>
       <c r="C9" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D9" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E9" s="1">
-        <v>4413.3747</v>
+        <v>4404.3276</v>
       </c>
       <c r="F9" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>57400.7921</v>
+        <v>57168.6126</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>57400.7921</v>
+        <v>57168.6126</v>
       </c>
       <c r="K9" s="1">
-        <v>71103.5981</v>
+        <v>71101.39350000001</v>
       </c>
       <c r="L9" s="1">
-        <v>16.1109</v>
+        <v>16.1435</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1678.5722</v>
+        <v>1675.1153</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8321.427799999999</v>
+        <v>-8324.884700000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.1114</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.835</v>
       </c>
       <c r="C10" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D10" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E10" s="1">
-        <v>5182.2446</v>
+        <v>5171.6577</v>
       </c>
       <c r="F10" s="1">
-        <v>844.1324</v>
+        <v>842.1963</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>71696.3547</v>
+        <v>71406.63</v>
       </c>
       <c r="I10" s="1">
-        <v>1678.5722</v>
+        <v>1675.1153</v>
       </c>
       <c r="J10" s="1">
-        <v>73374.92690000001</v>
+        <v>73081.7452</v>
       </c>
       <c r="K10" s="1">
-        <v>81103.5981</v>
+        <v>81101.39350000001</v>
       </c>
       <c r="L10" s="1">
-        <v>15.6503</v>
+        <v>15.6819</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11678.5722</v>
+        <v>-11675.1153</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0886</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>14.4216</v>
       </c>
       <c r="C11" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D11" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E11" s="1">
-        <v>6026.3771</v>
+        <v>6013.8541</v>
       </c>
       <c r="F11" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>86909.9997</v>
+        <v>86556.1991</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>86909.9997</v>
+        <v>86556.1991</v>
       </c>
       <c r="K11" s="1">
-        <v>92782.1704</v>
+        <v>92776.5088</v>
       </c>
       <c r="L11" s="1">
-        <v>15.396</v>
+        <v>15.4271</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0424</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>13.2404</v>
       </c>
       <c r="C12" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D12" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E12" s="1">
-        <v>6719.7814</v>
+        <v>6705.8717</v>
       </c>
       <c r="F12" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>88972.59390000001</v>
+        <v>88610.7176</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>88972.59390000001</v>
+        <v>88610.7176</v>
       </c>
       <c r="K12" s="1">
-        <v>102782.1704</v>
+        <v>102776.5088</v>
       </c>
       <c r="L12" s="1">
-        <v>15.2955</v>
+        <v>15.3263</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2169.4957</v>
+        <v>2164.9875</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7830.5043</v>
+        <v>-7835.0125</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>12.382</v>
       </c>
       <c r="C13" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D13" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E13" s="1">
-        <v>7475.0456</v>
+        <v>7459.6273</v>
       </c>
       <c r="F13" s="1">
-        <v>982.8376</v>
+        <v>980.5097</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>92556.0147</v>
+        <v>92180.1059</v>
       </c>
       <c r="I13" s="1">
-        <v>2169.4957</v>
+        <v>2164.9875</v>
       </c>
       <c r="J13" s="1">
-        <v>94725.5105</v>
+        <v>94345.0934</v>
       </c>
       <c r="K13" s="1">
-        <v>112782.1704</v>
+        <v>112776.5088</v>
       </c>
       <c r="L13" s="1">
-        <v>15.0878</v>
+        <v>15.1182</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12169.4957</v>
+        <v>-12164.9875</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0429</v>
+        <v>-0.0433</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>11.9583</v>
       </c>
       <c r="C14" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D14" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E14" s="1">
-        <v>8457.8833</v>
+        <v>8440.1369</v>
       </c>
       <c r="F14" s="1">
-        <v>-8457.8833</v>
+        <v>-8440.1369</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>101141.9054</v>
+        <v>100727.9702</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>101141.9054</v>
+        <v>100727.9702</v>
       </c>
       <c r="K14" s="1">
-        <v>124951.6661</v>
+        <v>124941.4962</v>
       </c>
       <c r="L14" s="1">
-        <v>14.7734</v>
+        <v>14.8033</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101141.9054</v>
+        <v>100727.9702</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4453,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.7493</v>
+        <v>14.779</v>
       </c>
       <c r="D3" s="1">
-        <v>14.7678</v>
+        <v>14.7992</v>
       </c>
       <c r="E3" s="1">
-        <v>14.7723</v>
+        <v>14.8025</v>
       </c>
       <c r="F3" s="1">
-        <v>14.7734</v>
+        <v>14.8029</v>
       </c>
       <c r="G3" s="1">
-        <v>14.7734</v>
+        <v>14.8033</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2828</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.2066</v>
+        <v>-0.2193</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.2078</v>
+        <v>-0.2206</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.2085</v>
+        <v>-0.2211</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.2086</v>
+        <v>-0.2211</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.2086</v>
+        <v>-0.2213</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1811</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1888</v>
+        <v>0.1877</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1907</v>
+        <v>0.1897</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1908</v>
+        <v>0.1898</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1908</v>
+        <v>0.1898</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1909</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.6735</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.2017</v>
+        <v>-1.2764</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.1964</v>
+        <v>-1.2703</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.1992</v>
+        <v>-1.2724</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.1997</v>
+        <v>-1.2722</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.1991</v>
+        <v>-1.2734</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.2787</v>
+        <v>-0.2845</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.2783</v>
+        <v>-0.2841</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.2785</v>
+        <v>-0.2841</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.2784</v>
+        <v>-0.284</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.2783</v>
+        <v>-0.284</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4888.8103</v>
+        <v>4878.9677</v>
       </c>
       <c r="D8" s="1">
-        <v>4946.0599</v>
+        <v>4939.7733</v>
       </c>
       <c r="E8" s="1">
-        <v>4946.8319</v>
+        <v>4941.1536</v>
       </c>
       <c r="F8" s="1">
-        <v>4949.2358</v>
+        <v>4943.857</v>
       </c>
       <c r="G8" s="1">
-        <v>4951.6661</v>
+        <v>4941.4962</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P47_KFSDIV.xlsx
+++ b/output/1Y_P47_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.1958</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>16.4264</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>17.107</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.8894</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>16.4004</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3877</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6367</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0061</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.835</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.4216</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.2404</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.382</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.9583</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.1958</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>16.4264</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>17.107</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.8894</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>16.4004</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3877</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6367</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0061</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.835</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.4216</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.2404</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.382</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.9583</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.1958</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>16.4264</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>17.107</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.8894</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>16.4004</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3877</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6367</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0061</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.835</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.4216</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.2404</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.382</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.9583</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.1958</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>16.4264</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>17.107</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.8894</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>16.4004</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3877</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6367</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0061</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.835</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.4216</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.2404</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.382</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.9583</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.1958</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>16.4264</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>17.107</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.8894</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>16.4004</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3877</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6367</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0061</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.835</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.4216</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.2404</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.382</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.9583</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6470.6672</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8083</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8067</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8064</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8062</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.806</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
